--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q2">
-        <v>0.001370681158888889</v>
+        <v>0.0006341085511111112</v>
       </c>
       <c r="R2">
-        <v>0.01233613043</v>
+        <v>0.00570697696</v>
       </c>
       <c r="S2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="T2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q3">
         <v>0.001052815037777778</v>
@@ -632,10 +632,10 @@
         <v>0.00947533534</v>
       </c>
       <c r="S3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="T3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N4">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q4">
-        <v>0.2554690667133334</v>
+        <v>0.3884852385655556</v>
       </c>
       <c r="R4">
-        <v>2.29922160042</v>
+        <v>3.49636714709</v>
       </c>
       <c r="S4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="T4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
     </row>
   </sheetData>
